--- a/sheet/cardset_s8.xlsx
+++ b/sheet/cardset_s8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>名前</t>
   </si>
@@ -55,94 +55,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>新幕 赛季7 (2021/12/3～ 『六扩：失乐飞翔』之后)</t>
-  </si>
-  <si>
-    <t>신막 시즌7 (2021/12/3～ 『제6확장：실락비상』이후)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">新幕 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>季7</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신막</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시즌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Shinmaku Season 7</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>一覧表示名（中国語）</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>名前（韓国語）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Shinmaku Season 7 (Expansion 6 release, 2021/12/3-)</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -165,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -209,20 +126,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="NSimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic Semilight"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -507,11 +410,11 @@
   <dimension ref="A1:V939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -542,10 +445,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -572,35 +475,23 @@
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', listName: '"&amp;C2&amp;"', nameZh: '"&amp;D2&amp;"', listNameZh: '"&amp;E2&amp;"',nameKo: '"&amp;F2&amp;"', listNameKo: '"&amp;G2&amp;"',nameEn: '"&amp;H2&amp;"', listNameEn: '"&amp;I2&amp;"'}"</f>
-        <v>'na-s8': { name: '新幕 シーズン8 プレリリース', listName: '新幕 シーズン8 プレリリース', nameZh: '新幕 赛季7', listNameZh: '新幕 赛季7 (2021/12/3～ 『六扩：失乐飞翔』之后)',nameKo: '신막 시즌7', listNameKo: '신막 시즌7 (2021/12/3～ 『제6확장：실락비상』이후)',nameEn: 'Shinmaku Season 7', listNameEn: 'Shinmaku Season 7 (Expansion 6 release, 2021/12/3-)'}</v>
+        <v>'na-s8': { name: '新幕 シーズン8 プレリリース', listName: '新幕 シーズン8 プレリリース', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>

--- a/sheet/cardset_s8.xlsx
+++ b/sheet/cardset_s8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>名前</t>
   </si>
@@ -67,14 +67,87 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>新幕 シーズン8 プレリリース</t>
+    <t>新幕 シーズン8</t>
     <rPh sb="0" eb="2">
       <t>シンマク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>新幕 シーズン8 プレリリース</t>
+    <r>
+      <t xml:space="preserve">新幕 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>季8</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신막</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시즌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Shinmaku Season 8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>新幕 シーズン8 (2022/11/11～ 『新劇拡張：神座桜縁起 前篇』以降)</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -82,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,6 +200,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="NSimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic Semilight"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -167,7 +254,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +272,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -410,18 +500,18 @@
   <dimension ref="A1:V939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
@@ -480,18 +570,24 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', listName: '"&amp;C2&amp;"', nameZh: '"&amp;D2&amp;"', listNameZh: '"&amp;E2&amp;"',nameKo: '"&amp;F2&amp;"', listNameKo: '"&amp;G2&amp;"',nameEn: '"&amp;H2&amp;"', listNameEn: '"&amp;I2&amp;"'}"</f>
-        <v>'na-s8': { name: '新幕 シーズン8 プレリリース', listName: '新幕 シーズン8 プレリリース', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <v>'na-s8': { name: '新幕 シーズン8', listName: '新幕 シーズン8 (2022/11/11～ 『新劇拡張：神座桜縁起 前篇』以降)', nameZh: '新幕 赛季8', listNameZh: '',nameKo: '신막 시즌8', listNameKo: '',nameEn: 'Shinmaku Season 8', listNameEn: ''}</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>

--- a/sheet/cardset_s8.xlsx
+++ b/sheet/cardset_s8.xlsx
@@ -10,12 +10,12 @@
     <sheet name="メガミ" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>名前</t>
   </si>
@@ -149,6 +149,12 @@
   <si>
     <t>新幕 シーズン8 (2022/11/11～ 『新劇拡張：神座桜縁起 前篇』以降)</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>신막 시즌8 (2022/11/11～ 『제8확장：신좌앵연기 전편』이후)</t>
+  </si>
+  <si>
+    <t>新幕 赛季8（2022/11/11～『新剧扩展：神座樱缘起 前篇』之后）</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -576,18 +582,22 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', listName: '"&amp;C2&amp;"', nameZh: '"&amp;D2&amp;"', listNameZh: '"&amp;E2&amp;"',nameKo: '"&amp;F2&amp;"', listNameKo: '"&amp;G2&amp;"',nameEn: '"&amp;H2&amp;"', listNameEn: '"&amp;I2&amp;"'}"</f>
-        <v>'na-s8': { name: '新幕 シーズン8', listName: '新幕 シーズン8 (2022/11/11～ 『新劇拡張：神座桜縁起 前篇』以降)', nameZh: '新幕 赛季8', listNameZh: '',nameKo: '신막 시즌8', listNameKo: '',nameEn: 'Shinmaku Season 8', listNameEn: ''}</v>
+        <v>'na-s8': { name: '新幕 シーズン8', listName: '新幕 シーズン8 (2022/11/11～ 『新劇拡張：神座桜縁起 前篇』以降)', nameZh: '新幕 赛季8', listNameZh: '新幕 赛季8（2022/11/11～『新剧扩展：神座樱缘起 前篇』之后）',nameKo: '신막 시즌8', listNameKo: '신막 시즌8 (2022/11/11～ 『제8확장：신좌앵연기 전편』이후)',nameEn: 'Shinmaku Season 8', listNameEn: ''}</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
